--- a/Students.xlsx
+++ b/Students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23829\Desktop\StudentManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A0F6BA-0F04-4D3B-8EE6-FE7B89F4B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A429A47-D228-4BBA-9B31-EBAD985B173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1584" yWindow="3144" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="128">
   <si>
     <t>张三</t>
   </si>
@@ -28,43 +28,506 @@
     <t>22251002</t>
   </si>
   <si>
+    <t>河南交通大学</t>
+  </si>
+  <si>
+    <t>2023年11月21日</t>
+  </si>
+  <si>
+    <t>张思</t>
+  </si>
+  <si>
+    <t>22251111</t>
+  </si>
+  <si>
+    <t>阿米诺斯</t>
+  </si>
+  <si>
+    <t>2023年11月15日</t>
+  </si>
+  <si>
+    <t>刘准</t>
+  </si>
+  <si>
+    <t>22251015</t>
+  </si>
+  <si>
+    <t>山东</t>
+  </si>
+  <si>
+    <t>2023年11月05日</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>王弘毅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>男</t>
-  </si>
-  <si>
-    <t>河南交通大学</t>
-  </si>
-  <si>
-    <t>2023年11月21日</t>
-  </si>
-  <si>
-    <t>班级A</t>
-  </si>
-  <si>
-    <t>张思</t>
-  </si>
-  <si>
-    <t>22251111</t>
-  </si>
-  <si>
-    <t>阿米诺斯</t>
-  </si>
-  <si>
-    <t>2023年11月15日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>翔宇</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子商务2201</t>
+  </si>
+  <si>
+    <t>张俊杰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>四川</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雨泽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工程2204</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晨辰</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流2201</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张昊天</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山东</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2206</t>
+  </si>
+  <si>
+    <t>王浩然</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工程2204</t>
+  </si>
+  <si>
+    <t>郭宇航</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>河南</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2208</t>
+  </si>
+  <si>
+    <t>张建国</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>海南</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王涛哲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2210</t>
+  </si>
+  <si>
+    <t>李泽民</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李卓越</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2212</t>
+  </si>
+  <si>
+    <t>张思源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2213</t>
+  </si>
+  <si>
+    <t>刘瑞阳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>马宏伟</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘肃</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2215</t>
+  </si>
+  <si>
+    <t>李雨婷</t>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>张心怡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>安徽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2217</t>
+  </si>
+  <si>
+    <t>李雨婷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>刘</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欣妍</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2219</t>
+  </si>
+  <si>
+    <t>钱羽晴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物流2201</t>
+  </si>
+  <si>
+    <t>王梦雨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>江西</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵璇婷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周秀雅</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>广西</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王浩然</t>
+  </si>
+  <si>
+    <t>物流2101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李珊瑚</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>重庆</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子商务2001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>王艳芳</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李昕怡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通工程1901</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>周紫薇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁夏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2028</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李悦心</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>青海</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭婉婷</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>西藏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输学2202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>赵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF24292F"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>君娜</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子商务2202</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>22221001</t>
+  </si>
+  <si>
+    <t>22231001</t>
+  </si>
+  <si>
+    <t>22241001</t>
+  </si>
+  <si>
+    <t>22251001</t>
+  </si>
+  <si>
+    <t>22251003</t>
+  </si>
+  <si>
+    <t>22251004</t>
+  </si>
+  <si>
+    <t>22251005</t>
+  </si>
+  <si>
+    <t>22251006</t>
+  </si>
+  <si>
+    <t>22251007</t>
+  </si>
+  <si>
+    <t>22251008</t>
+  </si>
+  <si>
+    <t>22251009</t>
+  </si>
+  <si>
+    <t>22251010</t>
+  </si>
+  <si>
+    <t>22251011</t>
+  </si>
+  <si>
+    <t>22251012</t>
+  </si>
+  <si>
+    <t>22251013</t>
+  </si>
+  <si>
+    <t>22251014</t>
+  </si>
+  <si>
+    <t>22251016</t>
+  </si>
+  <si>
+    <t>22251017</t>
+  </si>
+  <si>
+    <t>22251018</t>
+  </si>
+  <si>
+    <t>22251020</t>
+  </si>
+  <si>
+    <t>22251019</t>
+  </si>
+  <si>
+    <t>21251010</t>
+  </si>
+  <si>
+    <t>21051046</t>
+  </si>
+  <si>
+    <t>20251001</t>
+  </si>
+  <si>
+    <t>19201546</t>
+  </si>
+  <si>
+    <t>20254685</t>
+  </si>
+  <si>
+    <t>22251030</t>
+  </si>
+  <si>
+    <t>22251031</t>
+  </si>
+  <si>
+    <t>22251045</t>
+  </si>
+  <si>
+    <t>21251020</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>王弘毅</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>河北</t>
   </si>
   <si>
     <t>自行车</t>
-  </si>
-  <si>
-    <t>刘准</t>
-  </si>
-  <si>
-    <t>22251015</t>
-  </si>
-  <si>
-    <t>山东</t>
-  </si>
-  <si>
-    <t>2023年11月05日</t>
   </si>
 </sst>
 </file>
@@ -72,7 +535,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -86,6 +549,27 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292F"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF24292F"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,11 +598,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -434,85 +918,807 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="8.88671875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="19.21875" collapsed="true"/>
-    <col min="3" max="3" style="2" width="8.88671875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="29.109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="18.88671875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="11.44140625" collapsed="true"/>
+    <col min="1" max="1" style="1" width="8.88671875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.21875" collapsed="true"/>
+    <col min="3" max="3" style="1" width="8.88671875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="29.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="18.88671875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="18.6640625" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="C24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F26" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B4:B5" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/Students.xlsx
+++ b/Students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\23829\Desktop\StudentManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A0F6BA-0F04-4D3B-8EE6-FE7B89F4B44D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1E3569-A41B-46AF-B7F0-CAAD3EB238C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1584" yWindow="3144" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="15">
   <si>
     <t>张三</t>
   </si>
@@ -434,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -490,7 +490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -508,6 +508,326 @@
       </c>
       <c r="F3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
